--- a/Code/Results/Cases/Case_5_101/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_101/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.28837722086064</v>
+        <v>14.95913233839186</v>
       </c>
       <c r="C2">
-        <v>5.577252384148927</v>
+        <v>7.017072097323301</v>
       </c>
       <c r="D2">
-        <v>5.193599710968043</v>
+        <v>4.332044269402732</v>
       </c>
       <c r="E2">
-        <v>5.387499095565229</v>
+        <v>10.97399696776474</v>
       </c>
       <c r="F2">
-        <v>67.45486563596469</v>
+        <v>62.91472073251688</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.213188945407342</v>
+        <v>10.79928908514583</v>
       </c>
       <c r="K2">
-        <v>10.34426904704008</v>
+        <v>14.64954740462123</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>9.785430458520661</v>
+        <v>17.18926605683532</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.63716477663328</v>
+        <v>14.91463669885378</v>
       </c>
       <c r="C3">
-        <v>5.14008796044909</v>
+        <v>7.031843805192367</v>
       </c>
       <c r="D3">
-        <v>4.930174894709123</v>
+        <v>4.328982487646429</v>
       </c>
       <c r="E3">
-        <v>5.418219995112123</v>
+        <v>11.02401195914885</v>
       </c>
       <c r="F3">
-        <v>64.3902514426135</v>
+        <v>61.96255502277691</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.126802433056093</v>
+        <v>10.79514011089748</v>
       </c>
       <c r="K3">
-        <v>9.897768289167082</v>
+        <v>14.65813803374143</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.615917744809204</v>
+        <v>17.247744097123</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.23405426618176</v>
+        <v>14.89297276187142</v>
       </c>
       <c r="C4">
-        <v>4.861458064958993</v>
+        <v>7.044718253211924</v>
       </c>
       <c r="D4">
-        <v>4.763221494037525</v>
+        <v>4.329218401014931</v>
       </c>
       <c r="E4">
-        <v>5.442454277111876</v>
+        <v>11.05697670231987</v>
       </c>
       <c r="F4">
-        <v>62.46661988870797</v>
+        <v>61.37323266445771</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.075784910188694</v>
+        <v>10.79347060735618</v>
       </c>
       <c r="K4">
-        <v>9.627445170994719</v>
+        <v>14.66854854221326</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>9.522097408858517</v>
+        <v>17.28810834003998</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.06916508176204</v>
+        <v>14.88557416781989</v>
       </c>
       <c r="C5">
-        <v>4.745295124344628</v>
+        <v>7.050915421565919</v>
       </c>
       <c r="D5">
-        <v>4.693864003503647</v>
+        <v>4.329843502724848</v>
       </c>
       <c r="E5">
-        <v>5.453627395096864</v>
+        <v>11.07097758293286</v>
       </c>
       <c r="F5">
-        <v>61.67268584731482</v>
+        <v>61.13209582510549</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.055491623217748</v>
+        <v>10.79301135629647</v>
       </c>
       <c r="K5">
-        <v>9.518384680554</v>
+        <v>14.67408013766489</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>9.486401335440902</v>
+        <v>17.30567587184863</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.041754780237</v>
+        <v>14.88443215478917</v>
       </c>
       <c r="C6">
-        <v>4.725846940820467</v>
+        <v>7.05200168696993</v>
       </c>
       <c r="D6">
-        <v>4.682267138605351</v>
+        <v>4.329979144673667</v>
       </c>
       <c r="E6">
-        <v>5.455559539004716</v>
+        <v>11.07333670372003</v>
       </c>
       <c r="F6">
-        <v>61.54026486317853</v>
+        <v>61.09200161527851</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.052151597588137</v>
+        <v>10.79294845908238</v>
       </c>
       <c r="K6">
-        <v>9.500345912421103</v>
+        <v>14.67507643789983</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9.480625852136356</v>
+        <v>17.30866044715404</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.23183271704524</v>
+        <v>14.89286718532402</v>
       </c>
       <c r="C7">
-        <v>4.859902113203258</v>
+        <v>7.044797989512978</v>
       </c>
       <c r="D7">
-        <v>4.762291481150827</v>
+        <v>4.329224694202193</v>
       </c>
       <c r="E7">
-        <v>5.44259977678532</v>
+        <v>11.05716322492043</v>
       </c>
       <c r="F7">
-        <v>62.45595249247153</v>
+        <v>61.3699843296606</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.075509232060941</v>
+        <v>10.79346351819101</v>
       </c>
       <c r="K7">
-        <v>9.625969703534055</v>
+        <v>14.66861792690265</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>9.521605790315785</v>
+        <v>17.28834073529957</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.06462389983757</v>
+        <v>14.94262119339597</v>
       </c>
       <c r="C8">
-        <v>5.428601365135043</v>
+        <v>7.021372430197352</v>
       </c>
       <c r="D8">
-        <v>5.103842025139794</v>
+        <v>4.330547781455272</v>
       </c>
       <c r="E8">
-        <v>5.396943914118451</v>
+        <v>10.99077425373962</v>
       </c>
       <c r="F8">
-        <v>66.40715616134342</v>
+        <v>62.58750389088475</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.182975127039591</v>
+        <v>10.79767648985787</v>
       </c>
       <c r="K8">
-        <v>10.18959554140324</v>
+        <v>14.65144246061839</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>9.724827687829453</v>
+        <v>17.20850255171215</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.69927063010364</v>
+        <v>15.08465530129273</v>
       </c>
       <c r="C9">
-        <v>6.465902618753139</v>
+        <v>7.005844693441682</v>
       </c>
       <c r="D9">
-        <v>5.733287220731357</v>
+        <v>4.35003352042092</v>
       </c>
       <c r="E9">
-        <v>5.352569659500235</v>
+        <v>10.8784652738485</v>
       </c>
       <c r="F9">
-        <v>73.80747633683505</v>
+        <v>64.92940524728283</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.410393294106673</v>
+        <v>10.81289058735853</v>
       </c>
       <c r="K9">
-        <v>11.60710041454572</v>
+        <v>14.65856863088598</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>10.20658705477783</v>
+        <v>17.08741666968595</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.09326328196195</v>
+        <v>15.21542165273026</v>
       </c>
       <c r="C10">
-        <v>7.185869104374282</v>
+        <v>7.013211513085685</v>
       </c>
       <c r="D10">
-        <v>6.173179184264606</v>
+        <v>4.374735681077026</v>
       </c>
       <c r="E10">
-        <v>5.351229964712204</v>
+        <v>10.80683127301604</v>
       </c>
       <c r="F10">
-        <v>79.02253520094128</v>
+        <v>66.61115317576645</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.588645366004291</v>
+        <v>10.82828760090475</v>
       </c>
       <c r="K10">
-        <v>12.80887509619025</v>
+        <v>14.68869659533453</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>10.66719253431573</v>
+        <v>17.02021264222909</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.70771147978159</v>
+        <v>15.2804577136052</v>
       </c>
       <c r="C11">
-        <v>7.505742041733832</v>
+        <v>7.020668535059858</v>
       </c>
       <c r="D11">
-        <v>6.369028531013404</v>
+        <v>4.388231212685801</v>
       </c>
       <c r="E11">
-        <v>5.358296765952499</v>
+        <v>10.77660156328577</v>
       </c>
       <c r="F11">
-        <v>81.34769408178886</v>
+        <v>67.36555461684861</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.672433494688328</v>
+        <v>10.83620324420429</v>
       </c>
       <c r="K11">
-        <v>13.33757592281821</v>
+        <v>14.7077897111134</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>11.09666444162884</v>
+        <v>16.99438911633916</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.93774113064128</v>
+        <v>15.30586463591722</v>
       </c>
       <c r="C12">
-        <v>7.625918519186675</v>
+        <v>7.02408340325518</v>
       </c>
       <c r="D12">
-        <v>6.442644755986676</v>
+        <v>4.393665349359636</v>
       </c>
       <c r="E12">
-        <v>5.362156670475633</v>
+        <v>10.76549305600944</v>
       </c>
       <c r="F12">
-        <v>82.22164829158855</v>
+        <v>67.64951859093726</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.704577418194685</v>
+        <v>10.83933119295678</v>
       </c>
       <c r="K12">
-        <v>13.53539006388542</v>
+        <v>14.71579127784155</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>11.25731333183156</v>
+        <v>16.98529491896522</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.8883146544456</v>
+        <v>15.30035846457872</v>
       </c>
       <c r="C13">
-        <v>7.600076149790208</v>
+        <v>7.023321664539981</v>
       </c>
       <c r="D13">
-        <v>6.426813380093961</v>
+        <v>4.392480640949508</v>
       </c>
       <c r="E13">
-        <v>5.361271378832353</v>
+        <v>10.7678704037148</v>
       </c>
       <c r="F13">
-        <v>82.03371146577803</v>
+        <v>67.58844081170037</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.697635701948864</v>
+        <v>10.838651740856</v>
       </c>
       <c r="K13">
-        <v>13.49289033504514</v>
+        <v>14.71403375253763</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>11.22280014062652</v>
+        <v>16.98722304109126</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.72668807225762</v>
+        <v>15.28253245452251</v>
       </c>
       <c r="C14">
-        <v>7.515647201851454</v>
+        <v>7.020937632965493</v>
       </c>
       <c r="D14">
-        <v>6.375095543726631</v>
+        <v>4.388671804491886</v>
       </c>
       <c r="E14">
-        <v>5.358590116236103</v>
+        <v>10.77568086959251</v>
       </c>
       <c r="F14">
-        <v>81.4197237434409</v>
+        <v>67.38895182275701</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.675069502014955</v>
+        <v>10.83645797132679</v>
       </c>
       <c r="K14">
-        <v>13.35389697716668</v>
+        <v>14.70843256730384</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>11.10991987256166</v>
+        <v>16.99362720060036</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.62734819772192</v>
+        <v>15.27171439198501</v>
       </c>
       <c r="C15">
-        <v>7.463812727245582</v>
+        <v>7.01955431775696</v>
       </c>
       <c r="D15">
-        <v>6.343347683037738</v>
+        <v>4.386380888333685</v>
       </c>
       <c r="E15">
-        <v>5.357104417376939</v>
+        <v>10.78050912823074</v>
       </c>
       <c r="F15">
-        <v>81.04279793170188</v>
+        <v>67.26653088548123</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.66130200393405</v>
+        <v>10.83513119595047</v>
       </c>
       <c r="K15">
-        <v>13.26845402800158</v>
+        <v>14.70510202406573</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>11.04052432099894</v>
+        <v>16.99763914199277</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.05272632778699</v>
+        <v>15.21128149402521</v>
       </c>
       <c r="C16">
-        <v>7.164822889674184</v>
+        <v>7.012806879251293</v>
       </c>
       <c r="D16">
-        <v>6.160299528276203</v>
+        <v>4.373899086362939</v>
       </c>
       <c r="E16">
-        <v>5.350929304093048</v>
+        <v>10.80885427462603</v>
       </c>
       <c r="F16">
-        <v>78.86964906484896</v>
+        <v>66.56162153333996</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.583226139486385</v>
+        <v>10.82778858587423</v>
       </c>
       <c r="K16">
-        <v>12.77397721320392</v>
+        <v>14.68755696978519</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>10.63883890537244</v>
+        <v>17.02199597449375</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.69529150845352</v>
+        <v>15.17561641167632</v>
       </c>
       <c r="C17">
-        <v>6.979542207804462</v>
+        <v>7.009719954754774</v>
       </c>
       <c r="D17">
-        <v>6.046956866530889</v>
+        <v>4.366819813077357</v>
       </c>
       <c r="E17">
-        <v>5.349162240089043</v>
+        <v>10.82684669928817</v>
       </c>
       <c r="F17">
-        <v>77.52453650675241</v>
+        <v>66.1263268496941</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.536038379549901</v>
+        <v>10.82351717019865</v>
       </c>
       <c r="K17">
-        <v>12.46615372058844</v>
+        <v>14.67817154339727</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>10.4916541686859</v>
+        <v>17.03815554583902</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.48783861023299</v>
+        <v>15.15562641345239</v>
       </c>
       <c r="C18">
-        <v>6.872244206824329</v>
+        <v>7.008330928580897</v>
       </c>
       <c r="D18">
-        <v>5.98135965293577</v>
+        <v>4.362960688275061</v>
       </c>
       <c r="E18">
-        <v>5.348863272786621</v>
+        <v>10.83741731868939</v>
       </c>
       <c r="F18">
-        <v>76.74639633164756</v>
+        <v>65.87496639413132</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.509149530378681</v>
+        <v>10.821146195723</v>
       </c>
       <c r="K18">
-        <v>12.2873952657429</v>
+        <v>14.67328068228105</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>10.42980071977345</v>
+        <v>17.04789690101465</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.41727315427906</v>
+        <v>15.14894862210527</v>
       </c>
       <c r="C19">
-        <v>6.83578554636162</v>
+        <v>7.0079269704806</v>
       </c>
       <c r="D19">
-        <v>5.959078130979665</v>
+        <v>4.361690604066481</v>
       </c>
       <c r="E19">
-        <v>5.348882919019927</v>
+        <v>10.84103445554421</v>
       </c>
       <c r="F19">
-        <v>76.48215898877993</v>
+        <v>65.78969562136767</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.500088020236677</v>
+        <v>10.82035818344419</v>
       </c>
       <c r="K19">
-        <v>12.22657211592586</v>
+        <v>14.67171194932331</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>10.40905324200976</v>
+        <v>17.0512718343734</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.7335329494623</v>
+        <v>15.17935896008661</v>
       </c>
       <c r="C20">
-        <v>6.999340155421609</v>
+        <v>7.010008554675795</v>
       </c>
       <c r="D20">
-        <v>6.059063923065864</v>
+        <v>4.367551406988858</v>
       </c>
       <c r="E20">
-        <v>5.349275537956067</v>
+        <v>10.82490841491729</v>
       </c>
       <c r="F20">
-        <v>77.66818700218164</v>
+        <v>66.17276856505596</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.541035305665435</v>
+        <v>10.82396299069686</v>
       </c>
       <c r="K20">
-        <v>12.49909734941392</v>
+        <v>14.67911814628843</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>10.50319489243284</v>
+        <v>17.03638907611017</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.77423197517068</v>
+        <v>15.28774739776631</v>
       </c>
       <c r="C21">
-        <v>7.540470600010394</v>
+        <v>7.021621840144614</v>
       </c>
       <c r="D21">
-        <v>6.390300612615254</v>
+        <v>4.389781780227477</v>
       </c>
       <c r="E21">
-        <v>5.359344870429291</v>
+        <v>10.77337755143852</v>
       </c>
       <c r="F21">
-        <v>81.60024132852926</v>
+        <v>67.44759444020463</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.681686235019917</v>
+        <v>10.83709879885731</v>
       </c>
       <c r="K21">
-        <v>13.39478597995258</v>
+        <v>14.71005686691008</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>11.14312798097915</v>
+        <v>16.99172754961643</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.43906097765481</v>
+        <v>15.36311725536426</v>
       </c>
       <c r="C22">
-        <v>7.88866371761819</v>
+        <v>7.032656428259744</v>
       </c>
       <c r="D22">
-        <v>6.603629726827546</v>
+        <v>4.406196171290328</v>
       </c>
       <c r="E22">
-        <v>5.372867887960677</v>
+        <v>10.74167406913056</v>
       </c>
       <c r="F22">
-        <v>84.13221742420016</v>
+        <v>68.27071173082437</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.776046024727762</v>
+        <v>10.84644394948243</v>
       </c>
       <c r="K22">
-        <v>13.96632883404557</v>
+        <v>14.73477123625348</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>11.60721929125913</v>
+        <v>16.96652983068753</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.08556241456549</v>
+        <v>15.32248294572284</v>
       </c>
       <c r="C23">
-        <v>7.703272267336524</v>
+        <v>7.026451952569588</v>
       </c>
       <c r="D23">
-        <v>6.490035831300678</v>
+        <v>4.397263531778735</v>
       </c>
       <c r="E23">
-        <v>5.364987121495877</v>
+        <v>10.75841413685064</v>
       </c>
       <c r="F23">
-        <v>82.78419248579458</v>
+        <v>67.83237690245747</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.72545126649826</v>
+        <v>10.84138692654849</v>
       </c>
       <c r="K23">
-        <v>13.66248125302018</v>
+        <v>14.72117087258995</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>11.36051611453942</v>
+        <v>16.97961256764834</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.71625010872904</v>
+        <v>15.17766535043566</v>
       </c>
       <c r="C24">
-        <v>6.990391936355864</v>
+        <v>7.009876877324952</v>
       </c>
       <c r="D24">
-        <v>6.053591682498031</v>
+        <v>4.367219996569842</v>
       </c>
       <c r="E24">
-        <v>5.349222088856706</v>
+        <v>10.82578400763691</v>
       </c>
       <c r="F24">
-        <v>77.60325763443235</v>
+        <v>66.15177568946781</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.538775449711283</v>
+        <v>10.82376117132655</v>
       </c>
       <c r="K24">
-        <v>12.48420911408825</v>
+        <v>14.67868861401216</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>10.49797385652919</v>
+        <v>17.0371862923746</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.23648483220288</v>
+        <v>15.04153471362989</v>
       </c>
       <c r="C25">
-        <v>6.193130974681963</v>
+        <v>7.006761384674723</v>
       </c>
       <c r="D25">
-        <v>5.567147536153747</v>
+        <v>4.342941603911128</v>
       </c>
       <c r="E25">
-        <v>5.359368746185171</v>
+        <v>10.90693588967876</v>
       </c>
       <c r="F25">
-        <v>71.84428856709592</v>
+        <v>64.30190186393239</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.346990067641541</v>
+        <v>10.808032229049</v>
       </c>
       <c r="K25">
-        <v>11.14742074172055</v>
+        <v>14.65226651243995</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>10.06708895937736</v>
+        <v>17.11636152672907</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_101/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_101/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.95913233839186</v>
+        <v>12.28837722086062</v>
       </c>
       <c r="C2">
-        <v>7.017072097323301</v>
+        <v>5.577252384149091</v>
       </c>
       <c r="D2">
-        <v>4.332044269402732</v>
+        <v>5.193599710968014</v>
       </c>
       <c r="E2">
-        <v>10.97399696776474</v>
+        <v>5.387499095565341</v>
       </c>
       <c r="F2">
-        <v>62.91472073251688</v>
+        <v>67.45486563596441</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.79928908514583</v>
+        <v>7.213188945407448</v>
       </c>
       <c r="K2">
-        <v>14.64954740462123</v>
+        <v>10.34426904704006</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.18926605683532</v>
+        <v>9.7854304585207</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.91463669885378</v>
+        <v>11.63716477663329</v>
       </c>
       <c r="C3">
-        <v>7.031843805192367</v>
+        <v>5.140087960449185</v>
       </c>
       <c r="D3">
-        <v>4.328982487646429</v>
+        <v>4.930174894709285</v>
       </c>
       <c r="E3">
-        <v>11.02401195914885</v>
+        <v>5.41821999511215</v>
       </c>
       <c r="F3">
-        <v>61.96255502277691</v>
+        <v>64.3902514426136</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.79514011089748</v>
+        <v>7.12680243305616</v>
       </c>
       <c r="K3">
-        <v>14.65813803374143</v>
+        <v>9.897768289167065</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.247744097123</v>
+        <v>9.615917744809153</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.89297276187142</v>
+        <v>11.23405426618181</v>
       </c>
       <c r="C4">
-        <v>7.044718253211924</v>
+        <v>4.861458064959157</v>
       </c>
       <c r="D4">
-        <v>4.329218401014931</v>
+        <v>4.763221494037438</v>
       </c>
       <c r="E4">
-        <v>11.05697670231987</v>
+        <v>5.442454277112006</v>
       </c>
       <c r="F4">
-        <v>61.37323266445771</v>
+        <v>62.46661988870827</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.79347060735618</v>
+        <v>7.075784910188745</v>
       </c>
       <c r="K4">
-        <v>14.66854854221326</v>
+        <v>9.627445170994745</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.28810834003998</v>
+        <v>9.52209740885859</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.88557416781989</v>
+        <v>11.06916508176211</v>
       </c>
       <c r="C5">
-        <v>7.050915421565919</v>
+        <v>4.745295124344511</v>
       </c>
       <c r="D5">
-        <v>4.329843502724848</v>
+        <v>4.693864003503569</v>
       </c>
       <c r="E5">
-        <v>11.07097758293286</v>
+        <v>5.453627395096759</v>
       </c>
       <c r="F5">
-        <v>61.13209582510549</v>
+        <v>61.67268584731485</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.79301135629647</v>
+        <v>7.055491623217695</v>
       </c>
       <c r="K5">
-        <v>14.67408013766489</v>
+        <v>9.518384680554044</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.30567587184863</v>
+        <v>9.48640133544091</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.88443215478917</v>
+        <v>11.04175478023698</v>
       </c>
       <c r="C6">
-        <v>7.05200168696993</v>
+        <v>4.725846940820364</v>
       </c>
       <c r="D6">
-        <v>4.329979144673667</v>
+        <v>4.682267138605479</v>
       </c>
       <c r="E6">
-        <v>11.07333670372003</v>
+        <v>5.455559539004732</v>
       </c>
       <c r="F6">
-        <v>61.09200161527851</v>
+        <v>61.54026486317835</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.79294845908238</v>
+        <v>7.052151597588227</v>
       </c>
       <c r="K6">
-        <v>14.67507643789983</v>
+        <v>9.500345912421054</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.30866044715404</v>
+        <v>9.480625852136338</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.89286718532402</v>
+        <v>11.23183271704523</v>
       </c>
       <c r="C7">
-        <v>7.044797989512978</v>
+        <v>4.859902113203448</v>
       </c>
       <c r="D7">
-        <v>4.329224694202193</v>
+        <v>4.76229148115065</v>
       </c>
       <c r="E7">
-        <v>11.05716322492043</v>
+        <v>5.442599776785354</v>
       </c>
       <c r="F7">
-        <v>61.3699843296606</v>
+        <v>62.45595249247183</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.79346351819101</v>
+        <v>7.075509232060869</v>
       </c>
       <c r="K7">
-        <v>14.66861792690265</v>
+        <v>9.62596970353399</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.28834073529957</v>
+        <v>9.521605790315702</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.94262119339597</v>
+        <v>12.06462389983754</v>
       </c>
       <c r="C8">
-        <v>7.021372430197352</v>
+        <v>5.428601365135203</v>
       </c>
       <c r="D8">
-        <v>4.330547781455272</v>
+        <v>5.103842025140018</v>
       </c>
       <c r="E8">
-        <v>10.99077425373962</v>
+        <v>5.396943914118421</v>
       </c>
       <c r="F8">
-        <v>62.58750389088475</v>
+        <v>66.40715616134325</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.79767648985787</v>
+        <v>7.182975127039683</v>
       </c>
       <c r="K8">
-        <v>14.65144246061839</v>
+        <v>10.18959554140322</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.20850255171215</v>
+        <v>9.724827687829416</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.08465530129273</v>
+        <v>13.69927063010371</v>
       </c>
       <c r="C9">
-        <v>7.005844693441682</v>
+        <v>6.465902618753431</v>
       </c>
       <c r="D9">
-        <v>4.35003352042092</v>
+        <v>5.733287220731407</v>
       </c>
       <c r="E9">
-        <v>10.8784652738485</v>
+        <v>5.352569659500196</v>
       </c>
       <c r="F9">
-        <v>64.92940524728283</v>
+        <v>73.80747633683521</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.81289058735853</v>
+        <v>7.410393294106672</v>
       </c>
       <c r="K9">
-        <v>14.65856863088598</v>
+        <v>11.60710041454587</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.08741666968595</v>
+        <v>10.20658705477774</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.21542165273026</v>
+        <v>15.09326328196198</v>
       </c>
       <c r="C10">
-        <v>7.013211513085685</v>
+        <v>7.185869104374036</v>
       </c>
       <c r="D10">
-        <v>4.374735681077026</v>
+        <v>6.17317918426463</v>
       </c>
       <c r="E10">
-        <v>10.80683127301604</v>
+        <v>5.351229964712175</v>
       </c>
       <c r="F10">
-        <v>66.61115317576645</v>
+        <v>79.02253520094142</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.82828760090475</v>
+        <v>7.588645366004278</v>
       </c>
       <c r="K10">
-        <v>14.68869659533453</v>
+        <v>12.80887509619023</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.02021264222909</v>
+        <v>10.66719253431573</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.2804577136052</v>
+        <v>15.70771147978168</v>
       </c>
       <c r="C11">
-        <v>7.020668535059858</v>
+        <v>7.505742041733853</v>
       </c>
       <c r="D11">
-        <v>4.388231212685801</v>
+        <v>6.369028531013454</v>
       </c>
       <c r="E11">
-        <v>10.77660156328577</v>
+        <v>5.358296765952447</v>
       </c>
       <c r="F11">
-        <v>67.36555461684861</v>
+        <v>81.34769408178897</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.83620324420429</v>
+        <v>7.67243349468828</v>
       </c>
       <c r="K11">
-        <v>14.7077897111134</v>
+        <v>13.33757592281828</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.99438911633916</v>
+        <v>11.09666444162895</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.30586463591722</v>
+        <v>15.93774113064134</v>
       </c>
       <c r="C12">
-        <v>7.02408340325518</v>
+        <v>7.625918519186521</v>
       </c>
       <c r="D12">
-        <v>4.393665349359636</v>
+        <v>6.442644755986625</v>
       </c>
       <c r="E12">
-        <v>10.76549305600944</v>
+        <v>5.362156670475715</v>
       </c>
       <c r="F12">
-        <v>67.64951859093726</v>
+        <v>82.2216482915892</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.83933119295678</v>
+        <v>7.704577418194732</v>
       </c>
       <c r="K12">
-        <v>14.71579127784155</v>
+        <v>13.5353900638854</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.98529491896522</v>
+        <v>11.25731333183144</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.30035846457872</v>
+        <v>15.88831465444559</v>
       </c>
       <c r="C13">
-        <v>7.023321664539981</v>
+        <v>7.600076149790129</v>
       </c>
       <c r="D13">
-        <v>4.392480640949508</v>
+        <v>6.426813380093939</v>
       </c>
       <c r="E13">
-        <v>10.7678704037148</v>
+        <v>5.36127137883234</v>
       </c>
       <c r="F13">
-        <v>67.58844081170037</v>
+        <v>82.03371146577769</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.838651740856</v>
+        <v>7.697635701948806</v>
       </c>
       <c r="K13">
-        <v>14.71403375253763</v>
+        <v>13.49289033504509</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.98722304109126</v>
+        <v>11.22280014062655</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.28253245452251</v>
+        <v>15.72668807225774</v>
       </c>
       <c r="C14">
-        <v>7.020937632965493</v>
+        <v>7.515647201851369</v>
       </c>
       <c r="D14">
-        <v>4.388671804491886</v>
+        <v>6.375095543726804</v>
       </c>
       <c r="E14">
-        <v>10.77568086959251</v>
+        <v>5.358590116235978</v>
       </c>
       <c r="F14">
-        <v>67.38895182275701</v>
+        <v>81.41972374344068</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.83645797132679</v>
+        <v>7.675069502014928</v>
       </c>
       <c r="K14">
-        <v>14.70843256730384</v>
+        <v>13.35389697716673</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.99362720060036</v>
+        <v>11.10991987256174</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.27171439198501</v>
+        <v>15.62734819772195</v>
       </c>
       <c r="C15">
-        <v>7.01955431775696</v>
+        <v>7.463812727245648</v>
       </c>
       <c r="D15">
-        <v>4.386380888333685</v>
+        <v>6.343347683037674</v>
       </c>
       <c r="E15">
-        <v>10.78050912823074</v>
+        <v>5.357104417377001</v>
       </c>
       <c r="F15">
-        <v>67.26653088548123</v>
+        <v>81.0427979317016</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.83513119595047</v>
+        <v>7.661302003934112</v>
       </c>
       <c r="K15">
-        <v>14.70510202406573</v>
+        <v>13.26845402800168</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.99763914199277</v>
+        <v>11.04052432099896</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.21128149402521</v>
+        <v>15.0527263277869</v>
       </c>
       <c r="C16">
-        <v>7.012806879251293</v>
+        <v>7.164822889674263</v>
       </c>
       <c r="D16">
-        <v>4.373899086362939</v>
+        <v>6.160299528276171</v>
       </c>
       <c r="E16">
-        <v>10.80885427462603</v>
+        <v>5.350929304093093</v>
       </c>
       <c r="F16">
-        <v>66.56162153333996</v>
+        <v>78.8696490648484</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.82778858587423</v>
+        <v>7.58322613948641</v>
       </c>
       <c r="K16">
-        <v>14.68755696978519</v>
+        <v>12.77397721320384</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.02199597449375</v>
+        <v>10.6388389053725</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.17561641167632</v>
+        <v>14.6952915084535</v>
       </c>
       <c r="C17">
-        <v>7.009719954754774</v>
+        <v>6.979542207804395</v>
       </c>
       <c r="D17">
-        <v>4.366819813077357</v>
+        <v>6.046956866530929</v>
       </c>
       <c r="E17">
-        <v>10.82684669928817</v>
+        <v>5.349162240088984</v>
       </c>
       <c r="F17">
-        <v>66.1263268496941</v>
+        <v>77.52453650675238</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.82351717019865</v>
+        <v>7.536038379549962</v>
       </c>
       <c r="K17">
-        <v>14.67817154339727</v>
+        <v>12.46615372058832</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.03815554583902</v>
+        <v>10.49165416868595</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.15562641345239</v>
+        <v>14.48783861023304</v>
       </c>
       <c r="C18">
-        <v>7.008330928580897</v>
+        <v>6.87224420682445</v>
       </c>
       <c r="D18">
-        <v>4.362960688275061</v>
+        <v>5.981359652935748</v>
       </c>
       <c r="E18">
-        <v>10.83741731868939</v>
+        <v>5.348863272786708</v>
       </c>
       <c r="F18">
-        <v>65.87496639413132</v>
+        <v>76.746396331648</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.821146195723</v>
+        <v>7.509149530378703</v>
       </c>
       <c r="K18">
-        <v>14.67328068228105</v>
+        <v>12.28739526574296</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.04789690101465</v>
+        <v>10.42980071977343</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14894862210527</v>
+        <v>14.4172731542789</v>
       </c>
       <c r="C19">
-        <v>7.0079269704806</v>
+        <v>6.835785546361526</v>
       </c>
       <c r="D19">
-        <v>4.361690604066481</v>
+        <v>5.959078130979695</v>
       </c>
       <c r="E19">
-        <v>10.84103445554421</v>
+        <v>5.348882919019851</v>
       </c>
       <c r="F19">
-        <v>65.78969562136767</v>
+        <v>76.48215898877943</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.82035818344419</v>
+        <v>7.500088020236609</v>
       </c>
       <c r="K19">
-        <v>14.67171194932331</v>
+        <v>12.22657211592573</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.0512718343734</v>
+        <v>10.4090532420098</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.17935896008661</v>
+        <v>14.73353294946232</v>
       </c>
       <c r="C20">
-        <v>7.010008554675795</v>
+        <v>6.999340155421582</v>
       </c>
       <c r="D20">
-        <v>4.367551406988858</v>
+        <v>6.059063923065854</v>
       </c>
       <c r="E20">
-        <v>10.82490841491729</v>
+        <v>5.349275537956101</v>
       </c>
       <c r="F20">
-        <v>66.17276856505596</v>
+        <v>77.66818700218202</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.82396299069686</v>
+        <v>7.541035305665464</v>
       </c>
       <c r="K20">
-        <v>14.67911814628843</v>
+        <v>12.49909734941394</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.03638907611017</v>
+        <v>10.50319489243282</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.28774739776631</v>
+        <v>15.77423197517067</v>
       </c>
       <c r="C21">
-        <v>7.021621840144614</v>
+        <v>7.540470600010345</v>
       </c>
       <c r="D21">
-        <v>4.389781780227477</v>
+        <v>6.39030061261518</v>
       </c>
       <c r="E21">
-        <v>10.77337755143852</v>
+        <v>5.359344870429409</v>
       </c>
       <c r="F21">
-        <v>67.44759444020463</v>
+        <v>81.60024132852905</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.83709879885731</v>
+        <v>7.681686235019983</v>
       </c>
       <c r="K21">
-        <v>14.71005686691008</v>
+        <v>13.39478597995256</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.99172754961643</v>
+        <v>11.1431279809791</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.36311725536426</v>
+        <v>16.43906097765488</v>
       </c>
       <c r="C22">
-        <v>7.032656428259744</v>
+        <v>7.888663717618065</v>
       </c>
       <c r="D22">
-        <v>4.406196171290328</v>
+        <v>6.603629726827731</v>
       </c>
       <c r="E22">
-        <v>10.74167406913056</v>
+        <v>5.372867887960572</v>
       </c>
       <c r="F22">
-        <v>68.27071173082437</v>
+        <v>84.13221742420062</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.84644394948243</v>
+        <v>7.776046024727777</v>
       </c>
       <c r="K22">
-        <v>14.73477123625348</v>
+        <v>13.96632883404559</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.96652983068753</v>
+        <v>11.60721929125917</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.32248294572284</v>
+        <v>16.08556241456544</v>
       </c>
       <c r="C23">
-        <v>7.026451952569588</v>
+        <v>7.703272267336701</v>
       </c>
       <c r="D23">
-        <v>4.397263531778735</v>
+        <v>6.490035831300618</v>
       </c>
       <c r="E23">
-        <v>10.75841413685064</v>
+        <v>5.364987121495884</v>
       </c>
       <c r="F23">
-        <v>67.83237690245747</v>
+        <v>82.78419248579436</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.84138692654849</v>
+        <v>7.725451266498193</v>
       </c>
       <c r="K23">
-        <v>14.72117087258995</v>
+        <v>13.66248125302015</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.97961256764834</v>
+        <v>11.36051611453941</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.17766535043566</v>
+        <v>14.71625010872913</v>
       </c>
       <c r="C24">
-        <v>7.009876877324952</v>
+        <v>6.990391936355889</v>
       </c>
       <c r="D24">
-        <v>4.367219996569842</v>
+        <v>6.053591682497983</v>
       </c>
       <c r="E24">
-        <v>10.82578400763691</v>
+        <v>5.349222088856759</v>
       </c>
       <c r="F24">
-        <v>66.15177568946781</v>
+        <v>77.60325763443282</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.82376117132655</v>
+        <v>7.538775449711216</v>
       </c>
       <c r="K24">
-        <v>14.67868861401216</v>
+        <v>12.48420911408832</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.0371862923746</v>
+        <v>10.49797385652911</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.04153471362989</v>
+        <v>13.23648483220285</v>
       </c>
       <c r="C25">
-        <v>7.006761384674723</v>
+        <v>6.193130974682126</v>
       </c>
       <c r="D25">
-        <v>4.342941603911128</v>
+        <v>5.56714753615382</v>
       </c>
       <c r="E25">
-        <v>10.90693588967876</v>
+        <v>5.359368746185178</v>
       </c>
       <c r="F25">
-        <v>64.30190186393239</v>
+        <v>71.84428856709583</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.808032229049</v>
+        <v>7.346990067641563</v>
       </c>
       <c r="K25">
-        <v>14.65226651243995</v>
+        <v>11.1474207417206</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.11636152672907</v>
+        <v>10.06708895937733</v>
       </c>
       <c r="N25">
         <v>0</v>
